--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_LSPM_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_LSPM_No_lineal_Estacionario_SETAR.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.8072786362238927</v>
+        <v>-0.7562163359180574</v>
       </c>
       <c r="D2">
-        <v>0.4196203137646524</v>
+        <v>0.4575413224477005</v>
       </c>
       <c r="E2">
         <v>0.667165480888022</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.569828446848802</v>
+        <v>-0.5735825733982975</v>
       </c>
       <c r="D3">
-        <v>0.5688702921200899</v>
+        <v>0.5720678861681465</v>
       </c>
       <c r="E3">
         <v>0.667165480888022</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.875083201093875</v>
+        <v>1.665665569537948</v>
       </c>
       <c r="D4">
-        <v>0.06095472937270929</v>
+        <v>0.1099573845596935</v>
       </c>
       <c r="E4">
         <v>0.667165480888022</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.07362836810617347</v>
+        <v>0.07426082270509883</v>
       </c>
       <c r="D5">
-        <v>0.9413148681810577</v>
+        <v>0.9414739476839102</v>
       </c>
       <c r="E5">
         <v>0.667165480888022</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.2696713008883748</v>
+        <v>0.2524721524243098</v>
       </c>
       <c r="D6">
-        <v>0.7874462793368826</v>
+        <v>0.8030200330154873</v>
       </c>
       <c r="E6">
         <v>0.6916659131840104</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>2.489526427239798</v>
+        <v>2.340329406112874</v>
       </c>
       <c r="D7">
-        <v>0.01288748757808222</v>
+        <v>0.02874110344570058</v>
       </c>
       <c r="E7">
         <v>0.6916659131840104</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.790349397606854</v>
+        <v>0.7047094043381656</v>
       </c>
       <c r="D8">
-        <v>0.4294353583162975</v>
+        <v>0.4883850419611599</v>
       </c>
       <c r="E8">
         <v>0.6916659131840104</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>2.174066221345629</v>
+        <v>2.611529893878576</v>
       </c>
       <c r="D9">
-        <v>0.02983944180366871</v>
+        <v>0.01593304077264412</v>
       </c>
       <c r="E9">
         <v>0.6829701147899576</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.606318108837837</v>
+        <v>0.867240756290948</v>
       </c>
       <c r="D10">
-        <v>0.5443854998908444</v>
+        <v>0.3951711561028866</v>
       </c>
       <c r="E10">
         <v>0.6829701147899576</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.569860488207255</v>
+        <v>-1.846872228513234</v>
       </c>
       <c r="D11">
-        <v>0.1166359949614504</v>
+        <v>0.07826096599701837</v>
       </c>
       <c r="E11">
         <v>0.619475893862211</v>
